--- a/medicine/Enfance/Zep/Zep.xlsx
+++ b/medicine/Enfance/Zep/Zep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Chappuis dit ZepÉcouter, né le 15 décembre 1967 à Onex, dans le canton de Genève, est un auteur de bande dessinée et musicien suisse. Il est notamment connu pour sa série Titeuf. 
 </t>
@@ -513,66 +525,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et débuts
-Il est le fils d'un policier et d'une couturière[1]. Il crée son premier fanzine en 1979 et l'appelle Zep en hommage à Led Zeppelin[1].
-Peu intéressé par l'école[2], il entre à quatorze ans à l'École des arts décoratifs de Genève (aujourd'hui CFP Arts Genève) dans une section (éphémère) consacrée à la bande dessinée[2].
-En 1985, il est engagé par Le Journal de Spirou[1]. Il place quelques gags dans Fluide glacial, publie trois albums, Victor n'en rate pas une en 1988, Léon Coquillard en 1990, et Kradok Amanite Bunker en 1991. Avec les éditions Glénat, il lance en 1992 le personnage de Titeuf.
-Succès Titeuf (années 2000)
-L'immense succès obtenu avec Titeuf (un million d'albums vendus fin 1998, 16 millions traduits en 25 langues en 2008[1]) permet à Zep de lancer d'autres initiatives, comme Le Guide du zizi sexuel écrit par son ex-épouse Hélène Bruller, vendu à plus de trois millions d'exemplaires, le magazine Tchô! en 1998 (qui porte le nom de l'interjection favorite de Titeuf) et le parrainage de jeunes auteurs dans la série de bandes dessinées jeunesse Tchô! La collec.
-Zep est également amateur de musique (rock essentiellement et fan de Bob Dylan), d'où son pseudonyme hommage au groupe Led Zeppelin[3]. Cet intérêt lui a inspiré L'enfer des concerts, publié en 1999. De plus, il a formé un premier groupe de musique appelé Zep'n'Greg, rappelant parfois le style du Beau Lac de Bâle, et sorti deux disques avec des chansons humoristiques telles que : Dieu m'a changé en Suisse-Allemand, Pôv'Type Song, ou Les couilles à tonton. Après s'être séparés, Zep et quatre de ses amis ont reformé un nouveau groupe nommé Blük Blük[4]. Ils chantent des chansons à messages humoristiques comme Légalisez le Cenovis, Où sont les groupies ?, Moi je suce des Sugus, Le Rebelle suisse, etc. Blük Blük s'est arrêté officiellement le 8 septembre 2007, à la suite du départ du chanteur du groupe, Ernest Blük.
+          <t>Jeunesse et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils d'un policier et d'une couturière. Il crée son premier fanzine en 1979 et l'appelle Zep en hommage à Led Zeppelin.
+Peu intéressé par l'école, il entre à quatorze ans à l'École des arts décoratifs de Genève (aujourd'hui CFP Arts Genève) dans une section (éphémère) consacrée à la bande dessinée.
+En 1985, il est engagé par Le Journal de Spirou. Il place quelques gags dans Fluide glacial, publie trois albums, Victor n'en rate pas une en 1988, Léon Coquillard en 1990, et Kradok Amanite Bunker en 1991. Avec les éditions Glénat, il lance en 1992 le personnage de Titeuf.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Succès Titeuf (années 2000)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'immense succès obtenu avec Titeuf (un million d'albums vendus fin 1998, 16 millions traduits en 25 langues en 2008) permet à Zep de lancer d'autres initiatives, comme Le Guide du zizi sexuel écrit par son ex-épouse Hélène Bruller, vendu à plus de trois millions d'exemplaires, le magazine Tchô! en 1998 (qui porte le nom de l'interjection favorite de Titeuf) et le parrainage de jeunes auteurs dans la série de bandes dessinées jeunesse Tchô! La collec.
+Zep est également amateur de musique (rock essentiellement et fan de Bob Dylan), d'où son pseudonyme hommage au groupe Led Zeppelin. Cet intérêt lui a inspiré L'enfer des concerts, publié en 1999. De plus, il a formé un premier groupe de musique appelé Zep'n'Greg, rappelant parfois le style du Beau Lac de Bâle, et sorti deux disques avec des chansons humoristiques telles que : Dieu m'a changé en Suisse-Allemand, Pôv'Type Song, ou Les couilles à tonton. Après s'être séparés, Zep et quatre de ses amis ont reformé un nouveau groupe nommé Blük Blük. Ils chantent des chansons à messages humoristiques comme Légalisez le Cenovis, Où sont les groupies ?, Moi je suce des Sugus, Le Rebelle suisse, etc. Blük Blük s'est arrêté officiellement le 8 septembre 2007, à la suite du départ du chanteur du groupe, Ernest Blük.
 En 2006, Zep réalise le visuel du festival de musique Musiques en Stock.
 En 2008, alors que sort le tome 12 de Titeuf, il scénarise un livre dessiné par Tébo. Au même moment, il scénarise deux nouvelles séries : Captain Biceps (dessin de Tébo), Les Chronokids (dessin de Stan et Vince).
 Durant les années 2010, il se diversifie et lance des one-shots dessinés en style réaliste.
-Durant sa campagne de 2018 pour les élections présidentielles au Brésil Jair Bolsonaro a critiqué et instrumentalisé le kit pédagogique du projet « École sans homophobie » comprenant la BD intitulés Le zizi sexuel mettant en scène le personnage de Titeuf, ce qui a eu pour résultat de promouvoir davantage cette création de Zep[5].
-Rééditions et récits autobiographiques (2009-2012)
-En octobre 2009, il sort un album destiné à un public plus adulte, Happy Sex. L'éditeur Delcourt réédite l'année suivante Les Filles électriques sous le nouveau titre Happy Girls, puis L’Enfer des concerts sous le titre Happy Rock.
-Zep publie aussi des projets autobiographiques : en 2010, Glénat sort Le Portrait dessiné, album dans lequel Zep se raconte à travers des planches de BD ; en 2011, Gallimard sort Carnet intime, qui regroupe des dessins réalisés par Zep, de paysages urbains comme naturels, en France, en Tanzanie et au Japon.
-En 2012, il sort un treizième opus de Titeuf, intitulé À la folie !, quatre ans après le dernier opus. Entre-temps, l'auteur s'est investi dans la réalisation de l'adaptation cinématographique sortie en 2011. La même année, il remonte un groupe avec des amis musiciens et une chanteuse. Le groupe s'appelle Alice In Kernerland[6].
-Passage en style réaliste (depuis 2013)
-En septembre 2013, il publie son premier album en style réaliste, Une histoire d'hommes, chez Rue de Sèvres, dans lequel il rend hommage au rock'n'roll[7].
-À partir de 2014, il sort de ses sujets habituels : tout d'abord, il poursuit la série des Happy chez Delcourt avec un quatrième opus intitulé Happy Parents, dans lequel il revient sur son expérience de père de deux enfants.
-La même année, il parraine la première promotion de l'Académie de bande dessinée Brassart-Delcourt (ABD) qui vient d'être créée à Paris[8].
-En 2015, aux éditions Glénat, paraît What a Wonderful World, qui regroupe des dessins publiés sur son blog lié au quotidien Le Monde. Parallèlement sort le tome 14 de Titeuf, Bienvenue en adolescence !, qui raconte une histoire complète. Enfin, Zep est le scénariste d'un conte pornographique dessiné par Vince, Esmera[9].
-En mars 2016, Zep sort le one-shot Open Museum #3, aux Éditions Invenit. Il s'agit d'un livre accompagnant une carte blanche donnée par le palais des beaux-arts de Lille[10]. Zep réalise des dessins et des projections dans le musée. Une salle est également réservée aux dessins réalisés au cours de sa carrière.
-En octobre 2016, Rue de Sèvres sort Un bruit étrange et beau, un second album dessiné en style réaliste. Dans ce one-shot, l'auteur raconte le parcours d'un homme rejoignant l'ordre religieux des chartreux. Chez cet éditeur, il sort aussi une nouvelle série, Infinity 8, dont il assure les scénarios. Enfin, un second tome de What a Wonderful World est édité par Glénat.
-En août 2017, sort le tome 15 de Titeuf, À fond le slip !.
-En avril 2018, Rue de Sèvres sort The End, troisième one-shot en style réaliste[11].
-En 2019, il signe la pochette de l'album musical Les Mômes et les Enfants d'abord ! de Renaud[12].
-Depuis 2021, il forme, avec Valérie Martinez, le groupe de musique The Woohoo. En mars 2021 sort leurs premier single, Automatic Songs.
-Vie privée
-Zep a trois enfants, issus de deux mariages. La mère de deux d'entre eux est Hélène Bruller[13]. Il est en couple à partir de 2011[14] avec Mélanie Chappuis, puis devient son époux[15]. Il vit par la suite avec la musicienne Valérie Martinez[16].
-Il habite à Genève[17], dans le quartier des Charmilles[18].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Zep</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zep</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zep est un admirateur des bandes dessinées de Carl Barks et a profité de présider le festival d'Angoulême 2005 pour y inviter Don Rosa, l'un des successeurs de Barks[19].
+Durant sa campagne de 2018 pour les élections présidentielles au Brésil Jair Bolsonaro a critiqué et instrumentalisé le kit pédagogique du projet « École sans homophobie » comprenant la BD intitulés Le zizi sexuel mettant en scène le personnage de Titeuf, ce qui a eu pour résultat de promouvoir davantage cette création de Zep.
 </t>
         </is>
       </c>
@@ -598,13 +601,174 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rééditions et récits autobiographiques (2009-2012)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2009, il sort un album destiné à un public plus adulte, Happy Sex. L'éditeur Delcourt réédite l'année suivante Les Filles électriques sous le nouveau titre Happy Girls, puis L’Enfer des concerts sous le titre Happy Rock.
+Zep publie aussi des projets autobiographiques : en 2010, Glénat sort Le Portrait dessiné, album dans lequel Zep se raconte à travers des planches de BD ; en 2011, Gallimard sort Carnet intime, qui regroupe des dessins réalisés par Zep, de paysages urbains comme naturels, en France, en Tanzanie et au Japon.
+En 2012, il sort un treizième opus de Titeuf, intitulé À la folie !, quatre ans après le dernier opus. Entre-temps, l'auteur s'est investi dans la réalisation de l'adaptation cinématographique sortie en 2011. La même année, il remonte un groupe avec des amis musiciens et une chanteuse. Le groupe s'appelle Alice In Kernerland.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Passage en style réaliste (depuis 2013)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2013, il publie son premier album en style réaliste, Une histoire d'hommes, chez Rue de Sèvres, dans lequel il rend hommage au rock'n'roll.
+À partir de 2014, il sort de ses sujets habituels : tout d'abord, il poursuit la série des Happy chez Delcourt avec un quatrième opus intitulé Happy Parents, dans lequel il revient sur son expérience de père de deux enfants.
+La même année, il parraine la première promotion de l'Académie de bande dessinée Brassart-Delcourt (ABD) qui vient d'être créée à Paris.
+En 2015, aux éditions Glénat, paraît What a Wonderful World, qui regroupe des dessins publiés sur son blog lié au quotidien Le Monde. Parallèlement sort le tome 14 de Titeuf, Bienvenue en adolescence !, qui raconte une histoire complète. Enfin, Zep est le scénariste d'un conte pornographique dessiné par Vince, Esmera.
+En mars 2016, Zep sort le one-shot Open Museum #3, aux Éditions Invenit. Il s'agit d'un livre accompagnant une carte blanche donnée par le palais des beaux-arts de Lille. Zep réalise des dessins et des projections dans le musée. Une salle est également réservée aux dessins réalisés au cours de sa carrière.
+En octobre 2016, Rue de Sèvres sort Un bruit étrange et beau, un second album dessiné en style réaliste. Dans ce one-shot, l'auteur raconte le parcours d'un homme rejoignant l'ordre religieux des chartreux. Chez cet éditeur, il sort aussi une nouvelle série, Infinity 8, dont il assure les scénarios. Enfin, un second tome de What a Wonderful World est édité par Glénat.
+En août 2017, sort le tome 15 de Titeuf, À fond le slip !.
+En avril 2018, Rue de Sèvres sort The End, troisième one-shot en style réaliste.
+En 2019, il signe la pochette de l'album musical Les Mômes et les Enfants d'abord ! de Renaud.
+Depuis 2021, il forme, avec Valérie Martinez, le groupe de musique The Woohoo. En mars 2021 sort leurs premier single, Automatic Songs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zep a trois enfants, issus de deux mariages. La mère de deux d'entre eux est Hélène Bruller. Il est en couple à partir de 2011 avec Mélanie Chappuis, puis devient son époux. Il vit par la suite avec la musicienne Valérie Martinez.
+Il habite à Genève, dans le quartier des Charmilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Style</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zep est un admirateur des bandes dessinées de Carl Barks et a profité de présider le festival d'Angoulême 2005 pour y inviter Don Rosa, l'un des successeurs de Barks.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Séries
-Titeuf (scénario et dessin), Glénat (Tchô! : La Collec')
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Titeuf (scénario et dessin), Glénat (Tchô! : La Collec')
 Dieu, le Sexe et les Bretelles, décembre 1992 (colorisé en 2010),  (ISBN 2-7234-1593-7)
 L'amour, c'est pô propre, août 1993
 Ça épate les filles, mai 1994
@@ -649,9 +813,43 @@
 Infinity 8 (scénario), Rue de Sèvres
 Romance et Macchabées 1/6 (scénario avec Lewis Trondheim, dessin de Dominique Bertail), octobre 2016
 Romance et Macchabées 2/6 (scénario avec Lewis Trondheim, dessin de Dominique Bertail), octobre 2016
-Romance et Macchabées 3/6 (scénario avec Lewis Trondheim, dessin de Dominique Bertail), octobre 2016
-One Shots
-Victor n’en rate pas une !!, Éditions Kesselring, septembre 1988
+Romance et Macchabées 3/6 (scénario avec Lewis Trondheim, dessin de Dominique Bertail), octobre 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>One Shots</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Victor n’en rate pas une !!, Éditions Kesselring, septembre 1988
 Léon Coquillard - divisionnaire de l'après 26 novembre (textes de Gilli), Éditions GSSA, septembre 1990
 Kradok - Amanite Bunker (scénario de Leglode), Éditions ATOZ, juin 1991
 Les Amours contrariées de Calin &amp; Labelle, BD Club Genève, janvier 1995
@@ -681,9 +879,43 @@
 The End, Rue de Sèvres, avril 2018
 PARIS 2119 (dessin de Dominique Bertail), Rue de Sèvres, janvier 2019
 Happy Sex tome 2, Delcourt, septembre 2019
-Ce que nous sommes, Rue de Sèvres, 2021
-Collectifs
-1997 : À fond la gomme (Les motos de ma vie)
+Ce que nous sommes, Rue de Sèvres, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1997 : À fond la gomme (Les motos de ma vie)
 1999 : Les Restos du cœur (Solidarité au caramel)
 1999 : Sales Petits Contes (Les petits chats se cachent pour mourir)
 2004 : Jean-Jacques Goldman Chansons pour les yeux (Mais qui est véritablement J.J.G ?) (Couverture de Zep)
@@ -697,9 +929,43 @@
 2009 : Je dessine mon film (Titeuf contre KING KONG)
 2009 : Jacques Glénat Éditeur - les auteurs lui disent merci (couverture de Zep)
 2012 : Revoilà Popeye (Couverture de Zep)
-2015 : Abracadabox (Tebo, Zep et Julien Neel)
-Livres illustrés et portfolios
-1985 : Contes du Kurdistan
+2015 : Abracadabox (Tebo, Zep et Julien Neel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livres illustrés et portfolios</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1985 : Contes du Kurdistan
 1995 : 20 vraies fausses pochettes de disques par 20 vrais dessinateurs de B.D.
 1996 : Cahier de souvenirs
 1998 : The Swof White Cross Porfolio
@@ -707,9 +973,43 @@
 2002 : Club Poukram
 2004 : Raspoutine « Cuzzego » Spécial 10 ans
 2014 : Zep à Montreux
-2019 : Invisible Max[20], dans la collection « Une histoire et ...Oli »
-Bibliothèque rose
-Textes d'Hélène Bruller
+2019 : Invisible Max, dans la collection « Une histoire et ...Oli »</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Textes d'Hélène Bruller
 Même pô mal, 2000
 C'est pô croyab, 2000
 C'est pô une vie..., 2000
@@ -730,36 +1030,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Zep</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zep</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Autres œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habillage de télévision
-En 2008, Zep réalise l'habillage des programmes jeunesses de la Télévision suisse romande (Mabule).
-Illustrations de pochettes CD
-1995 : Titi &amp; the Raw Minets (guitare)
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Habillage de télévision</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, Zep réalise l'habillage des programmes jeunesses de la Télévision suisse romande (Mabule).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Autres œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Illustrations de pochettes CD</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1995 : Titi &amp; the Raw Minets (guitare)
 1995 : Zep’n’Greg - Badaboum vol.1 (compos, guitare, chant, cor, kazoo, sifflet, meuh-box)
 1996 : JFM - Inguitarissable
 2001 : Bob Dylan - live at Montreux 1994
@@ -772,10 +1112,44 @@
 2009 : Toufo - Live dans un bus
 2011 : Bande originale de Titeuf, le film
 2013 : Henri Dès - Casse-pieds
-2019 : Renaud - Les Mômes et les Enfants d’abord
-Peintures murales
-2006 : Titeuf, parcours BD, boulevard Émile Bockstael à Bruxelles, ± 160 m2
-2018 : Titeuf, deux peintures murales  à Onex, dans le Canton de Genève, ville où Zep a grandi : sur le pignon sud de l’immeuble 26-38 rue de la Calle, appartenant à la Fondation privée pour des logements à loyer modéré (FPLM)[21] ; et sur le pignon nord de l’immeuble 43-57 rue des Racettes.
+2019 : Renaud - Les Mômes et les Enfants d’abord</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Autres œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Peintures murales</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2006 : Titeuf, parcours BD, boulevard Émile Bockstael à Bruxelles, ± 160 m2
+2018 : Titeuf, deux peintures murales  à Onex, dans le Canton de Genève, ville où Zep a grandi : sur le pignon sud de l’immeuble 26-38 rue de la Calle, appartenant à la Fondation privée pour des logements à loyer modéré (FPLM) ; et sur le pignon nord de l’immeuble 43-57 rue des Racettes.
 2022 : Titeuf et Nadia, peinture murale à Étoile-Palettes au Grand-Lancy (commune de Lancy, canton de Genève, 50 mètres ou 13 étages de hauteur).
 			Parcours BD à Bruxelles
 			Pignon d’immeuble à Onex
@@ -785,71 +1159,75 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Zep</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zep</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>2011 : Titeuf, le film (réalisation et scénario)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Zep</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zep</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Zep</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zep</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1996 :  Alph-Art jeunesse 9-12 ans du festival d'Angoulême pour C'est pô juste...[22]
-2000 :  grand prix du Festival de Solliès-Ville[23], ce qui lui a valu d'être l'invité d'honneur (et le dessinateur de l'affiche) en 2001
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1996 :  Alph-Art jeunesse 9-12 ans du festival d'Angoulême pour C'est pô juste...
+2000 :  grand prix du Festival de Solliès-Ville, ce qui lui a valu d'être l'invité d'honneur (et le dessinateur de l'affiche) en 2001
 2003 :  Alph'Art du public au festival d'Angoulême pour La Loi du préau
-2004 :  grand prix de la ville d'Angoulême, pour l'ensemble de son œuvre[24]
-2009 :  prix Showbusiness du Swiss Award[25].
-2009 :  Prix de la Fondation pour Genève, pour l'ensemble de son œuvre[26],
+2004 :  grand prix de la ville d'Angoulême, pour l'ensemble de son œuvre
+2009 :  prix Showbusiness du Swiss Award.
+2009 :  Prix de la Fondation pour Genève, pour l'ensemble de son œuvre,
 2010 :  globe de Cristal de la meilleure bande dessinée pour Happy Sex.
-2011 : Prix Jeunesse pour Les ChronoKids #3, avec Stan et Vince[27]
-2015 :  Prix Wolinski de la BD du Point (première édition sous cette nouvelle dénomination après l'attentat contre Charlie Hebdo) pour What a Wonderful World ! remis par Maryse Wolinski, veuve de Wolinski[28]</t>
+2011 : Prix Jeunesse pour Les ChronoKids #3, avec Stan et Vince
+2015 :  Prix Wolinski de la BD du Point (première édition sous cette nouvelle dénomination après l'attentat contre Charlie Hebdo) pour What a Wonderful World ! remis par Maryse Wolinski, veuve de Wolinski</t>
         </is>
       </c>
     </row>
